--- a/dataset/哈利波特/output/角色统计/哈利波特与凤凰社 第33章 角色统计.xlsx
+++ b/dataset/哈利波特/output/角色统计/哈利波特与凤凰社 第33章 角色统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>角色</t>
   </si>
@@ -58,16 +58,22 @@
     <t>斯内普</t>
   </si>
   <si>
+    <t>佩妮</t>
+  </si>
+  <si>
     <t>小天狼星</t>
   </si>
   <si>
+    <t>高尔</t>
+  </si>
+  <si>
     <t>伏地魔</t>
   </si>
   <si>
-    <t>佩妮</t>
-  </si>
-  <si>
-    <t>高尔</t>
+    <t>克拉布</t>
+  </si>
+  <si>
+    <t>斯普劳特</t>
   </si>
   <si>
     <t>卢平</t>
@@ -77,9 +83,6 @@
   </si>
   <si>
     <t>庞弗雷夫人</t>
-  </si>
-  <si>
-    <t>克拉布</t>
   </si>
 </sst>
 </file>
@@ -437,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -497,7 +500,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -519,7 +522,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -530,7 +533,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -541,7 +544,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -563,7 +566,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -585,7 +588,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -596,7 +599,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -607,7 +610,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -618,7 +621,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -629,7 +632,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -640,7 +643,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -651,7 +654,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -662,12 +665,23 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
         <v>1</v>
       </c>
     </row>
